--- a/광고관리.xlsx
+++ b/광고관리.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dltjd\ALINE\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E64CF49-858F-4C05-A3DE-26AA2A2B6CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D728C7-3898-4668-9EF2-04FB869C6BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="1" r:id="rId1"/>
     <sheet name="검색광고" sheetId="3" r:id="rId2"/>
-    <sheet name="직접점검필요" sheetId="4" r:id="rId3"/>
-    <sheet name="추가홍보문구" sheetId="5" r:id="rId4"/>
+    <sheet name="추가홍보문구" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">검색광고!$A$11:$AJ$11</definedName>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>todo</t>
   </si>
@@ -76,9 +75,6 @@
     <t>기본입찰가</t>
   </si>
   <si>
-    <t>대기키워드</t>
-  </si>
-  <si>
     <t>상품번호(스마트스토어)</t>
   </si>
   <si>
@@ -134,26 +130,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>그룹ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소재ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노출 상품명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제한사유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>대기 소재</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -281,6 +257,22 @@
   </si>
   <si>
     <t>해당 그룹에서 10개 초과의 미사용 소재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제외키워드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.원본기준 쇼핑몰 ID 가져오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.소재점검/신규소재 관리방안</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -478,11 +470,11 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="쉼표 [0] 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -774,10 +766,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:L17"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -796,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -813,13 +805,13 @@
         <v>1</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -827,13 +819,13 @@
         <v>2</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -841,13 +833,13 @@
         <v>3</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>65</v>
+        <v>29</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -855,46 +847,46 @@
         <v>4</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>68</v>
+        <v>32</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>69</v>
+        <v>28</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>70</v>
+        <v>39</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>66</v>
+        <v>27</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -905,41 +897,51 @@
         <v>6</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>67</v>
+        <v>33</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -954,8 +956,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AW121"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:R3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -977,7 +979,7 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="G1" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.3">
@@ -997,22 +999,22 @@
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.3">
@@ -1035,16 +1037,16 @@
         <v>90</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.3">
@@ -1080,39 +1082,44 @@
         <v>-10</v>
       </c>
     </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="J8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="J9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+      <c r="J9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="11" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>9</v>
@@ -1121,13 +1128,13 @@
         <v>8</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -2242,51 +2249,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A593767-48A4-47B2-9C1A-FE83CDEEE037}">
-  <dimension ref="A2:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB0F1A1-6218-4125-84A8-04B7B0DF81FF}">
   <dimension ref="B3:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2297,10 +2264,10 @@
   <sheetData>
     <row r="3" spans="2:3" ht="25.5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
